--- a/results/mod3.lrgenBYhealth.eff.MN.xlsx
+++ b/results/mod3.lrgenBYhealth.eff.MN.xlsx
@@ -410,25 +410,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00849038377154605</v>
+        <v>0.00848950782936503</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0182218705450337</v>
+        <v>0.0182217407727376</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0272238262276713</v>
+        <v>-0.0272244478208257</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0442045937707634</v>
+        <v>0.0442034634795557</v>
       </c>
       <c r="G2" t="n">
-        <v>0.465944687213249</v>
+        <v>0.465899934328261</v>
       </c>
       <c r="H2" t="n">
-        <v>0.64125509336823</v>
+        <v>0.641287128166539</v>
       </c>
     </row>
     <row r="3">
@@ -436,25 +436,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0180030526527506</v>
+        <v>0.018004949549846</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0381091622015779</v>
+        <v>0.0381087251979532</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0566895327433373</v>
+        <v>-0.0566867793348762</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0926956380488384</v>
+        <v>0.0926966784345683</v>
       </c>
       <c r="G3" t="n">
-        <v>0.472407463526059</v>
+        <v>0.472462656683491</v>
       </c>
       <c r="H3" t="n">
-        <v>0.636635978080758</v>
+        <v>0.636596590514461</v>
       </c>
     </row>
     <row r="4">
@@ -462,25 +462,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0119835397950285</v>
+        <v>-0.0119841162402876</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0149586710991574</v>
+        <v>0.014958543226347</v>
       </c>
       <c r="D4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0413019964059571</v>
+        <v>-0.0413023222251134</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0173349168159001</v>
+        <v>0.0173340897445382</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.801109919162775</v>
+        <v>-0.801155303624724</v>
       </c>
       <c r="H4" t="n">
-        <v>0.42306801430443</v>
+        <v>0.423041743145589</v>
       </c>
     </row>
     <row r="5">
@@ -488,25 +488,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0145098966292681</v>
+        <v>-0.0145103411389235</v>
       </c>
       <c r="C5" t="n">
-        <v>0.013902841106185</v>
+        <v>0.0139026992897119</v>
       </c>
       <c r="D5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0417589644801737</v>
+        <v>-0.0417591310346494</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0127391712216374</v>
+        <v>0.0127384487568025</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.04366413443459</v>
+        <v>-1.04370675338286</v>
       </c>
       <c r="H5" t="n">
-        <v>0.296640808979569</v>
+        <v>0.296621084352815</v>
       </c>
     </row>
   </sheetData>
